--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Email_Subject</t>
-  </si>
-  <si>
-    <t>Invalid Credentials</t>
   </si>
   <si>
     <t>ServerName</t>
@@ -379,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,6 +396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -667,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -678,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -702,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -740,22 +738,24 @@
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="7" t="str">
+        <f ca="1">CONCATENATE("Daily Onboarding Process Report -(",TEXT(NOW(),"yyyy/mm/dd"),")")</f>
+        <v>Daily Onboarding Process Report -(2025/11/23)</v>
+      </c>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7">
         <v>465</v>
@@ -764,34 +764,34 @@
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
         <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1834,145 +1834,145 @@
     </row>
     <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1980,15 +1980,15 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>5000</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5">
         <v>15000</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5">
         <v>50000</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5">
         <v>5</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5">
         <v>5000</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5">
         <v>15000</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5">
         <v>50000</v>
@@ -3049,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3066,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3099,47 +3099,47 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -272,17 +272,27 @@
   </si>
   <si>
     <t>OutputFolderDirectory</t>
+  </si>
+  <si>
+    <t>ExcelFileSchema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,27 +386,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +626,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -740,7 +751,7 @@
       </c>
       <c r="B13" s="7" t="str">
         <f ca="1">CONCATENATE("Daily Onboarding Process Report -(",TEXT(NOW(),"yyyy/mm/dd"),")")</f>
-        <v>Daily Onboarding Process Report -(2025/11/23)</v>
+        <v>Daily Onboarding Process Report -(2025/11/25)</v>
       </c>
       <c r="C13" s="17"/>
     </row>
@@ -794,7 +805,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="str">
+        <f ca="1">CONCATENATE("Onboarding_Report_",TEXT(NOW(),"yyyy-mm-dd"),".xlsx")</f>
+        <v>Onboarding_Report_2025-11-25.xlsx</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
